--- a/doc/20140416_QA_database_illustration.xlsx
+++ b/doc/20140416_QA_database_illustration.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
     <sheet name="Speculator" sheetId="2" r:id="rId2"/>
-    <sheet name="Management" sheetId="5" r:id="rId3"/>
-    <sheet name="Question" sheetId="3" r:id="rId4"/>
+    <sheet name="Question" sheetId="3" r:id="rId3"/>
+    <sheet name="Management" sheetId="5" r:id="rId4"/>
     <sheet name="Reply" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t xml:space="preserve">Stock </t>
   </si>
@@ -227,15 +227,6 @@
     <t>吕旭光</t>
   </si>
   <si>
-    <t>management_name</t>
-  </si>
-  <si>
-    <t>management_office_name</t>
-  </si>
-  <si>
-    <t>公司人员名字</t>
-  </si>
-  <si>
     <t>公司人员官方名字</t>
   </si>
   <si>
@@ -252,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">Unknown usage. All is_check are TRUE in the raw data. I best guess is it is used for presentation purpose. </t>
+  </si>
+  <si>
+    <t>management</t>
   </si>
 </sst>
 </file>
@@ -608,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -690,7 +684,7 @@
         <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -780,108 +774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +823,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1100,20 +996,117 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1151,7 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1172,7 +1165,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1206,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,12 +1219,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1240,27 +1233,11 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/doc/20140416_QA_database_illustration.xlsx
+++ b/doc/20140416_QA_database_illustration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
   <si>
     <t xml:space="preserve">Stock </t>
   </si>
@@ -774,10 +774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A14"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +999,41 @@
         <v>73</v>
       </c>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1009,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
@@ -1103,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,6 +1271,26 @@
         <v>67</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
